--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-8223-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-8223-top-by-haul.xlsx
@@ -77,7 +77,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 54 сек.</t>
+    <t>17 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>5</t>
@@ -122,7 +122,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 3 сек.</t>
+    <t>12 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -140,7 +140,7 @@
     <t>iji</t>
   </si>
   <si>
-    <t>11 ч. 29 мин. 2 сек.</t>
+    <t>11 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -149,7 +149,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>11 ч. 22 мин. 9 сек.</t>
+    <t>11 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -176,7 +176,7 @@
     <t>counterfeit</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 23 сек.</t>
+    <t>9 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -185,7 +185,7 @@
     <t>byADDON</t>
   </si>
   <si>
-    <t>8 ч. 45 мин. 8 сек.</t>
+    <t>8 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -194,7 +194,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>8 ч. 44 мин. 2 сек.</t>
+    <t>8 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -230,7 +230,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 33 сек.</t>
+    <t>7 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -239,7 +239,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>6 ч. 39 мин. 8 сек.</t>
+    <t>6 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -401,7 +401,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 8 сек.</t>
+    <t>5 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>41</t>
@@ -410,7 +410,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 4 сек.</t>
+    <t>5 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -428,7 +428,7 @@
     <t>dertru</t>
   </si>
   <si>
-    <t>4 ч. 54 мин. 9 сек.</t>
+    <t>4 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -482,7 +482,7 @@
     <t>gramh</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 2 сек.</t>
+    <t>4 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -491,7 +491,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 20 сек.</t>
+    <t>4 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>51</t>
@@ -500,7 +500,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 22 сек.</t>
+    <t>4 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -509,7 +509,7 @@
     <t>Korner</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 7 сек.</t>
+    <t>4 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -635,7 +635,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 6 сек.</t>
+    <t>3 ч. 29 мин. 06 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -734,7 +734,7 @@
     <t>ivkest</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -743,7 +743,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 58 сек.</t>
+    <t>3 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>79</t>
@@ -752,7 +752,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 52 сек.</t>
+    <t>3 ч. 00 мин. 52 сек.</t>
   </si>
   <si>
     <t>80</t>
@@ -761,7 +761,7 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 6 сек.</t>
+    <t>2 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>81</t>
@@ -770,7 +770,7 @@
     <t>gassar</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 1 сек.</t>
+    <t>2 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -815,7 +815,7 @@
     <t>pavlosof</t>
   </si>
   <si>
-    <t>2 ч. 51 мин. 1 сек.</t>
+    <t>2 ч. 51 мин. 01 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -869,7 +869,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 8 сек.</t>
+    <t>2 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -968,7 +968,7 @@
     <t>oleggo</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 8 сек.</t>
+    <t>2 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -1022,7 +1022,7 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 7 сек.</t>
+    <t>2 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>110</t>
@@ -1049,7 +1049,7 @@
     <t>Saranka</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 6 сек.</t>
+    <t>2 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -1067,7 +1067,7 @@
     <t>XuMuK_</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 8 сек.</t>
+    <t>2 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -1130,7 +1130,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 5 сек.</t>
+    <t>2 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1139,7 +1139,7 @@
     <t>Lucky_You</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1148,7 +1148,7 @@
     <t>Твоямама</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 6 сек.</t>
+    <t>2 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1184,7 +1184,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 0 сек.</t>
+    <t>2 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1193,7 +1193,7 @@
     <t>Pcholka</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>129</t>
@@ -1202,7 +1202,7 @@
     <t>Антоха61</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 39 сек.</t>
+    <t>2 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1211,7 +1211,7 @@
     <t>Andrulya</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 0 сек.</t>
+    <t>2 ч. 09 мин. 00 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1220,7 +1220,7 @@
     <t>TarutE</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 11 сек.</t>
+    <t>2 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>132</t>
@@ -1229,7 +1229,7 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 6 сек.</t>
+    <t>2 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>133</t>
@@ -1238,7 +1238,7 @@
     <t>ip_2112</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 49 сек.</t>
+    <t>2 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1247,7 +1247,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 32 сек.</t>
+    <t>2 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1256,7 +1256,7 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 11 сек.</t>
+    <t>2 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>136</t>
@@ -1265,7 +1265,7 @@
     <t>Wiiseacre</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 38 сек.</t>
+    <t>2 ч. 05 мин. 38 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1274,7 +1274,7 @@
     <t>EvilMachine</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 56 сек.</t>
+    <t>2 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>138</t>
@@ -1283,7 +1283,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 42 сек.</t>
+    <t>2 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1292,7 +1292,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 39 сек.</t>
+    <t>2 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>140</t>
@@ -1301,7 +1301,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 27 сек.</t>
+    <t>2 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>141</t>
@@ -1310,7 +1310,7 @@
     <t>vovetRU</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 34 сек.</t>
+    <t>2 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1355,7 +1355,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 3 сек.</t>
+    <t>1 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>147</t>
@@ -1553,7 +1553,7 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 9 сек.</t>
+    <t>1 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1571,7 +1571,7 @@
     <t>molot-perm</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 7 сек.</t>
+    <t>1 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1580,7 +1580,7 @@
     <t>lndeterminate</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 4 сек.</t>
+    <t>1 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1616,7 +1616,7 @@
     <t>machinek56</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 7 сек.</t>
+    <t>1 ч. 40 мин. 07 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1697,7 +1697,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 6 сек.</t>
+    <t>1 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1796,7 +1796,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 0 сек.</t>
+    <t>1 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1814,7 +1814,7 @@
     <t>Сонь</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 0 сек.</t>
+    <t>1 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1832,7 +1832,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 2 сек.</t>
+    <t>1 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1859,7 +1859,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 9 сек.</t>
+    <t>1 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>203</t>
@@ -1877,7 +1877,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 3 сек.</t>
+    <t>1 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>205</t>
@@ -1895,7 +1895,7 @@
     <t>gurkovs</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 8 сек.</t>
+    <t>1 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1958,7 +1958,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 1 сек.</t>
+    <t>1 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>214</t>
@@ -2030,7 +2030,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 5 сек.</t>
+    <t>1 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>222</t>
@@ -2075,7 +2075,7 @@
     <t>VQV</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 5 сек.</t>
+    <t>1 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>227</t>
@@ -2084,7 +2084,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 3 сек.</t>
+    <t>1 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -2138,7 +2138,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 5 сек.</t>
+    <t>1 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>234</t>
@@ -2147,7 +2147,7 @@
     <t>Ирдэнс</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>235</t>
@@ -2156,7 +2156,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 39 сек.</t>
+    <t>1 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>236</t>
@@ -2165,7 +2165,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 34 сек.</t>
+    <t>1 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2174,7 +2174,7 @@
     <t>Соточка</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 31 сек.</t>
+    <t>1 ч. 09 мин. 31 сек.</t>
   </si>
   <si>
     <t>238</t>
@@ -2183,7 +2183,7 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 28 сек.</t>
+    <t>1 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2192,7 +2192,7 @@
     <t>romashka_raz</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 13 сек.</t>
+    <t>1 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2201,7 +2201,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 51 сек.</t>
+    <t>1 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2210,7 +2210,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 41 сек.</t>
+    <t>1 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2219,7 +2219,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 39 сек.</t>
+    <t>1 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2228,7 +2228,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 2 сек.</t>
+    <t>1 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>244</t>
@@ -2237,7 +2237,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 56 сек.</t>
+    <t>1 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2246,7 +2246,7 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 54 сек.</t>
+    <t>1 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>246</t>
@@ -2255,7 +2255,7 @@
     <t>JESE_R</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 52 сек.</t>
+    <t>1 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>247</t>
@@ -2264,7 +2264,7 @@
     <t>Play4food</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 27 сек.</t>
+    <t>1 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>248</t>
@@ -2273,7 +2273,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 50 сек.</t>
+    <t>1 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>249</t>
@@ -2282,7 +2282,7 @@
     <t>shdw</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 46 сек.</t>
+    <t>1 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2291,7 +2291,7 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 34 сек.</t>
+    <t>1 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2300,7 +2300,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 27 сек.</t>
+    <t>1 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>252</t>
@@ -2309,7 +2309,7 @@
     <t>Kml</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 16 сек.</t>
+    <t>1 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>253</t>
@@ -2318,7 +2318,7 @@
     <t>Pasha18</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 3 сек.</t>
+    <t>1 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2327,7 +2327,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 56 сек.</t>
+    <t>1 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2336,7 +2336,7 @@
     <t>sorokonoshka</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 11 сек.</t>
+    <t>1 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>256</t>
@@ -2345,7 +2345,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 44 сек.</t>
+    <t>1 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2354,7 +2354,7 @@
     <t>k1netik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 39 сек.</t>
+    <t>1 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2363,7 +2363,7 @@
     <t>Астронафт</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 56 сек.</t>
+    <t>1 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>259</t>
@@ -2372,7 +2372,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 55 сек.</t>
+    <t>1 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2381,7 +2381,7 @@
     <t>zpslon</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2390,7 +2390,7 @@
     <t>4buRatoR</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2399,7 +2399,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 33 сек.</t>
+    <t>1 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2408,7 +2408,7 @@
     <t>Кощей3452</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 23 сек.</t>
+    <t>1 ч. 00 мин. 23 сек.</t>
   </si>
   <si>
     <t>264</t>
@@ -2417,7 +2417,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 15 сек.</t>
+    <t>1 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>265</t>
@@ -2453,7 +2453,7 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 2 сек.</t>
+    <t>0 ч. 58 мин. 02 сек.</t>
   </si>
   <si>
     <t>269</t>
@@ -2507,7 +2507,7 @@
     <t>dogs_life</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 6 сек.</t>
+    <t>0 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>275</t>
@@ -2516,7 +2516,7 @@
     <t>coolgrave</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 2 сек.</t>
+    <t>0 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2588,7 +2588,7 @@
     <t>Импульс</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 6 сек.</t>
+    <t>0 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2642,7 +2642,7 @@
     <t>Arbiter</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 2 сек.</t>
+    <t>0 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>290</t>
@@ -2696,7 +2696,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 1 сек.</t>
+    <t>0 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>296</t>
@@ -2741,7 +2741,7 @@
     <t>bkozhaev</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 3 сек.</t>
+    <t>0 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>301</t>
@@ -2750,7 +2750,7 @@
     <t>_aggel</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 5 сек.</t>
+    <t>0 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>302</t>
@@ -2759,7 +2759,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 4 сек.</t>
+    <t>0 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>303</t>
@@ -2804,7 +2804,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>0 ч. 39 мин. 8 сек.</t>
+    <t>0 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>308</t>
